--- a/data/trans_dic/P55$privada-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$privada-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 28,22</t>
+          <t>5,3; 28,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,15</t>
+          <t>0,0; 17,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 24,05</t>
+          <t>3,1; 27,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,72; 29,77</t>
+          <t>12,4; 29,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,99; 36,16</t>
+          <t>10,64; 35,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 23,08</t>
+          <t>5,15; 22,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 28,87</t>
+          <t>7,55; 30,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 23,25</t>
+          <t>12,49; 23,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,26; 28,24</t>
+          <t>10,51; 27,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 17,41</t>
+          <t>5,14; 17,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 24,34</t>
+          <t>7,35; 24,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 23,29</t>
+          <t>13,89; 23,87</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 18,34</t>
+          <t>2,01; 18,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 29,47</t>
+          <t>7,17; 30,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 30,01</t>
+          <t>8,13; 29,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 20,52</t>
+          <t>4,32; 20,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 25,63</t>
+          <t>6,59; 24,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 21,76</t>
+          <t>7,4; 22,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 15,54</t>
+          <t>2,73; 14,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,93; 23,62</t>
+          <t>11,81; 23,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 18,9</t>
+          <t>6,94; 19,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 21,72</t>
+          <t>8,86; 22,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 17,16</t>
+          <t>5,66; 17,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,61; 20,06</t>
+          <t>10,89; 19,52</t>
         </is>
       </c>
     </row>
@@ -1009,57 +1010,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,26</t>
+          <t>0,0; 27,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 27,37</t>
+          <t>3,63; 27,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 34,5</t>
+          <t>6,56; 32,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,02; 44,59</t>
+          <t>16,27; 43,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 27,43</t>
+          <t>4,5; 27,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,07; 34,81</t>
+          <t>10,96; 34,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,27; 26,45</t>
+          <t>11,22; 26,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,62; 31,8</t>
+          <t>11,16; 31,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 23,51</t>
+          <t>5,7; 23,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,4; 28,9</t>
+          <t>9,31; 27,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,51; 25,59</t>
+          <t>11,93; 24,81</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,35; 48,8</t>
+          <t>11,16; 46,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 35,79</t>
+          <t>10,04; 36,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 34,63</t>
+          <t>7,77; 33,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 25,45</t>
+          <t>8,46; 25,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 35,69</t>
+          <t>15,27; 35,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,89; 38,19</t>
+          <t>16,25; 38,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,99; 32,85</t>
+          <t>10,99; 33,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,67; 27,42</t>
+          <t>15,1; 27,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 34,94</t>
+          <t>16,85; 35,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 32,36</t>
+          <t>16,91; 33,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,32; 30,04</t>
+          <t>12,47; 29,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 24,77</t>
+          <t>14,45; 24,46</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 17,85</t>
+          <t>7,32; 18,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,83; 20,93</t>
+          <t>8,3; 20,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,13; 21,11</t>
+          <t>9,49; 21,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,89; 20,72</t>
+          <t>12,06; 20,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,56; 27,69</t>
+          <t>16,6; 27,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,38; 21,52</t>
+          <t>12,6; 21,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,5; 21,35</t>
+          <t>11,22; 21,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,42; 21,43</t>
+          <t>15,54; 21,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,77; 22,51</t>
+          <t>14,36; 22,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,98; 19,56</t>
+          <t>12,34; 20,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,91; 19,76</t>
+          <t>11,92; 20,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,13; 20,22</t>
+          <t>15,04; 20,29</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, tiene ayuda privada cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4655</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1842</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10148</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9200</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7500</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9975</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13806</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13855</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9342</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12788</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23954</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1794; 9544</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5837</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>861; 7570</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6156; 14656</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4765; 15738</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3143; 13814</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4542; 18124</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9954; 18541</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8268; 21671</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4813; 16536</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6466; 21716</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17964; 30864</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7587</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6853</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3977</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9982</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11863</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5663</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14599</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13880</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19449</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12516</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18576</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>964; 8909</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3271; 14008</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3325; 12244</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1670; 7794</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4460; 16558</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6535; 19476</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2095; 11269</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10154; 20159</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8034; 23085</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11867; 29643</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6666; 20263</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13581; 24336</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2620</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4382</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13534</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7553</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10687</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10315</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13534</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10061</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13307</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14696</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1864</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7629</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>844; 6283</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1674; 8360</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7558; 20034</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2334; 14356</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5652; 17961</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6542; 15498</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7595; 21101</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4552; 18875</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6967; 20779</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10002; 20796</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6458</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8205</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5336</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6704</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17678</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20358</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16145</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21280</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24136</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>28562</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>21481</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>27984</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2579; 10657</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4019; 14645</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2293; 9966</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3655; 11114</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10992; 25408</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12720; 30009</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8657; 26324</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15741; 28859</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16025; 34014</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>20003; 39629</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13504; 31808</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>21311; 36078</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15010</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>20142</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17621</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>25211</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>50394</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>47273</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42470</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>65404</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>67415</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>60091</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>85211</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9267; 23059</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12129; 29601</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11525; 26215</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>18949; 32316</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38331; 64313</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>35222; 61208</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>30009; 58628</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>51023; 70644</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>51325; 80466</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>52537; 85224</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>46339; 77914</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>72994; 98478</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>